--- a/Hugo Hernan Henao/Trimestre IV/Evidencias/QuickSort/Documentos/Presupuesto.xlsx
+++ b/Hugo Hernan Henao/Trimestre IV/Evidencias/QuickSort/Documentos/Presupuesto.xlsx
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Instructivo!$A$1:$D$34</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Por Recursos'!$A$1:$H$182</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Por Recursos'!$A$1:$H$172</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Presupuesto Detallado'!$A$1:$J$155</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'Por Recursos'!$1:$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'Presupuesto Detallado'!$1:$6</definedName>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="65">
   <si>
     <t>Columna</t>
   </si>
@@ -50,12 +50,6 @@
     <t>Presupuesto de Proyecto</t>
   </si>
   <si>
-    <t>Líder del Proyecto: [Nombre]</t>
-  </si>
-  <si>
-    <t>Fecha de Inicio: [dd/mm/aaaa]</t>
-  </si>
-  <si>
     <t>Elemento</t>
   </si>
   <si>
@@ -71,63 +65,9 @@
     <t>Código</t>
   </si>
   <si>
-    <t>Labor (Personal)</t>
-  </si>
-  <si>
-    <t>[Personal 1]</t>
-  </si>
-  <si>
-    <t>[Personal 2]</t>
-  </si>
-  <si>
-    <t>[Consultor 1]</t>
-  </si>
-  <si>
-    <t>[Consultor 2]</t>
-  </si>
-  <si>
-    <t>Consultoría</t>
-  </si>
-  <si>
-    <t>[Material 1]</t>
-  </si>
-  <si>
-    <t>[Material 2]</t>
-  </si>
-  <si>
-    <t>[Material 3]</t>
-  </si>
-  <si>
     <t>Materiales</t>
   </si>
   <si>
-    <t>[Item de Viaje 1]</t>
-  </si>
-  <si>
-    <t>Viajes</t>
-  </si>
-  <si>
-    <t>[Item de Viaje 2]</t>
-  </si>
-  <si>
-    <t>[Item de Licencia 1]</t>
-  </si>
-  <si>
-    <t>[Item de Licencia 2]</t>
-  </si>
-  <si>
-    <t>Licencias</t>
-  </si>
-  <si>
-    <t>[Item de Gastos Indirectos 1]</t>
-  </si>
-  <si>
-    <t>[Item de Gastos Indirectos 2]</t>
-  </si>
-  <si>
-    <t>[Item de Gastos Indirectos 3]</t>
-  </si>
-  <si>
     <t>1.1</t>
   </si>
   <si>
@@ -146,9 +86,6 @@
     <t>% Reserva de Contingencia</t>
   </si>
   <si>
-    <t>Costos Indirectos</t>
-  </si>
-  <si>
     <t>Categoría</t>
   </si>
   <si>
@@ -227,15 +164,9 @@
     <t>Tarea / Actividad</t>
   </si>
   <si>
-    <t>[Nombre de la Empresa / Logo]</t>
-  </si>
-  <si>
     <t>Hoja: Datos</t>
   </si>
   <si>
-    <t>Líder del Proyecto: Hugo Hernán Henao Hernández</t>
-  </si>
-  <si>
     <t>Fecha de Inicio: 17/10/2021</t>
   </si>
   <si>
@@ -300,6 +231,9 @@
   </si>
   <si>
     <t>Energía</t>
+  </si>
+  <si>
+    <t>Líder del Proyecto: Alejandro Giraldo Herrera y Jhon Faber Muñoz Restrepo</t>
   </si>
 </sst>
 </file>
@@ -427,7 +361,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -452,7 +386,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="2"/>
     </xf>
@@ -644,6 +577,55 @@
         <a:xfrm>
           <a:off x="4845326" y="99391"/>
           <a:ext cx="969065" cy="601642"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>462642</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>63124</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1605854</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>201385</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3162299" y="63124"/>
+          <a:ext cx="1143212" cy="709761"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -944,8 +926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D34"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="175" zoomScaleNormal="175" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A25" zoomScale="175" zoomScaleNormal="175" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -967,16 +949,16 @@
       <c r="B2" s="7"/>
     </row>
     <row r="4" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="25" t="s">
-        <v>63</v>
+      <c r="B4" s="24" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="25" t="s">
-        <v>41</v>
+      <c r="B5" s="24" t="s">
+        <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -990,56 +972,56 @@
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
-      <c r="D7" s="16"/>
+      <c r="D7" s="15"/>
     </row>
     <row r="8" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="15"/>
+    </row>
+    <row r="9" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B9" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B10" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B11" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="16"/>
-    </row>
-    <row r="9" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B9" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B10" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B11" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>46</v>
+      <c r="C11" s="27" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="16"/>
-      <c r="C12" s="26"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="25"/>
     </row>
     <row r="13" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="25" t="s">
-        <v>47</v>
+      <c r="B13" s="24" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>48</v>
+      <c r="B14" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -1053,84 +1035,84 @@
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
-      <c r="D16" s="16"/>
+      <c r="D16" s="15"/>
     </row>
     <row r="17" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="16"/>
+      <c r="B17" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="15"/>
     </row>
     <row r="18" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>56</v>
+      <c r="B18" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B20" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B21" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B22" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B23" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B20" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B21" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B22" s="27" t="s">
+      <c r="C23" s="27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B24" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B23" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B24" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>49</v>
+      <c r="C24" s="27" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="25" t="s">
-        <v>57</v>
+      <c r="B26" s="24" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B27" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="29" t="s">
-        <v>58</v>
+      <c r="B27" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -1144,47 +1126,47 @@
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
-      <c r="D29" s="16"/>
+      <c r="D29" s="15"/>
     </row>
     <row r="30" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B30" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="16"/>
+      <c r="B30" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="15"/>
     </row>
     <row r="31" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B31" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="28" t="s">
-        <v>54</v>
+      <c r="B31" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B33" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B34" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="27" t="s">
         <v>39</v>
-      </c>
-      <c r="C32" s="28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B33" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B34" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="28" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1198,14 +1180,14 @@
   <dimension ref="B1:F22"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="25.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -1223,7 +1205,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
@@ -1238,23 +1220,23 @@
     </row>
     <row r="4" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="5"/>
     </row>
     <row r="6" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>5</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
@@ -1264,133 +1246,133 @@
       <c r="E7" s="12"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="18">
+      <c r="B8" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="17">
         <v>20000</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="18">
+      <c r="B9" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="17">
         <v>10000</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="18">
+      <c r="B10" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="17">
         <v>10000</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" s="18">
+      <c r="B11" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="17">
         <v>150</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" s="18">
+      <c r="B12" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="17">
         <v>250</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="18"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="17"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="18"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="17"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="18"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="17"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="18"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="17"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="18"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="17"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="18"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="17"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="18"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="17"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
-      <c r="E20" s="18"/>
+      <c r="E20" s="17"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
-      <c r="E21" s="18"/>
+      <c r="E21" s="17"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
-      <c r="E22" s="18"/>
+      <c r="E22" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1432,15 +1414,15 @@
         <v>2</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="7"/>
       <c r="G2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="20">
+        <v>14</v>
+      </c>
+      <c r="I2" s="19">
         <v>0.3</v>
       </c>
     </row>
@@ -1451,743 +1433,743 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F4" s="5"/>
-      <c r="G4" s="21">
+      <c r="G4" s="20">
         <f>I7+I24</f>
         <v>435200</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="20">
         <f>G4*I2</f>
         <v>130560</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="20">
         <f>SUM(G4:H4)</f>
         <v>565760</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="D6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="10" t="s">
+      <c r="I6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="7" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="30">
+      <c r="B7" s="29">
         <v>1</v>
       </c>
-      <c r="C7" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="32">
+      <c r="C7" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="31">
         <f>SUM(I8,I12,I16,J42,I20)</f>
         <v>192000</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="41">
+      <c r="B8" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="40">
         <f>SUM(I10:I11,I9)</f>
         <v>20250</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="13"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E9" s="18" t="str">
+      <c r="C9" s="15"/>
+      <c r="D9" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="17" t="str">
         <f>VLOOKUP(D9,Datos!$B$8:$E$22,2,)</f>
         <v>Personal</v>
       </c>
-      <c r="F9" s="18" t="str">
+      <c r="F9" s="17" t="str">
         <f>VLOOKUP(D9,Datos!$B$8:$E$22,3,)</f>
         <v>Horas</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="21">
         <v>1</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="17">
         <f>VLOOKUP(D9,Datos!$B$8:$E$22,4,)</f>
         <v>10000</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="18">
         <f>G9*H9</f>
         <v>10000</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="13"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E10" s="18" t="str">
+      <c r="C10" s="15"/>
+      <c r="D10" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="17" t="str">
         <f>VLOOKUP(D10,Datos!$B$8:$E$22,2,)</f>
         <v>Personal</v>
       </c>
-      <c r="F10" s="18" t="str">
+      <c r="F10" s="17" t="str">
         <f>VLOOKUP(D10,Datos!$B$8:$E$22,3,)</f>
         <v>Horas</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="21">
         <v>1</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="17">
         <f>VLOOKUP(D10,Datos!$B$8:$E$22,4,)</f>
         <v>10000</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="18">
         <f>G10*H10</f>
         <v>10000</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="13"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="E11" s="18" t="str">
+      <c r="C11" s="15"/>
+      <c r="D11" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="17" t="str">
         <f>VLOOKUP(D11,Datos!$B$8:$E$22,2,)</f>
         <v>Materiales</v>
       </c>
-      <c r="F11" s="18" t="str">
+      <c r="F11" s="17" t="str">
         <f>VLOOKUP(D11,Datos!$B$8:$E$22,3,)</f>
         <v>Kw/h</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="21">
         <v>1</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="17">
         <f>VLOOKUP(D11,Datos!$B$8:$E$22,4,)</f>
         <v>250</v>
       </c>
-      <c r="I11" s="19">
+      <c r="I11" s="18">
         <f>G11*H11</f>
         <v>250</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="41">
+      <c r="B12" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="40">
         <f>SUM(I13:I15)</f>
         <v>30250</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="13"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E13" s="18" t="str">
+      <c r="C13" s="15"/>
+      <c r="D13" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="17" t="str">
         <f>VLOOKUP(D13,Datos!$B$8:$E$22,2,)</f>
         <v>Personal</v>
       </c>
-      <c r="F13" s="18" t="str">
+      <c r="F13" s="17" t="str">
         <f>VLOOKUP(D13,Datos!$B$8:$E$22,3,)</f>
         <v>Horas</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="21">
         <v>1</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H13" s="17">
         <f>VLOOKUP(D13,Datos!$B$8:$E$22,4,)</f>
         <v>10000</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I13" s="18">
         <f>G13*H13</f>
         <v>10000</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="13"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="18" t="str">
+      <c r="C14" s="15"/>
+      <c r="D14" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="17" t="str">
         <f>VLOOKUP(D14,Datos!$B$8:$E$22,2,)</f>
         <v>Personal</v>
       </c>
-      <c r="F14" s="18" t="str">
+      <c r="F14" s="17" t="str">
         <f>VLOOKUP(D14,Datos!$B$8:$E$22,3,)</f>
         <v>Horas</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="21">
         <v>1</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H14" s="17">
         <f>VLOOKUP(D14,Datos!$B$8:$E$22,4,)</f>
         <v>20000</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I14" s="18">
         <f>G14*H14</f>
         <v>20000</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="13"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="E15" s="18" t="str">
+      <c r="C15" s="15"/>
+      <c r="D15" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="17" t="str">
         <f>VLOOKUP(D15,Datos!$B$8:$E$22,2,)</f>
         <v>Materiales</v>
       </c>
-      <c r="F15" s="18" t="str">
+      <c r="F15" s="17" t="str">
         <f>VLOOKUP(D15,Datos!$B$8:$E$22,3,)</f>
         <v>Kw/h</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="21">
         <v>1</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H15" s="17">
         <f>VLOOKUP(D15,Datos!$B$8:$E$22,4,)</f>
         <v>250</v>
       </c>
-      <c r="I15" s="19">
+      <c r="I15" s="18">
         <f>G15*H15</f>
         <v>250</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="41">
+      <c r="B16" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="40">
         <f>SUM(I17:I19)</f>
         <v>40250</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C17" s="13"/>
-      <c r="D17" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" s="18" t="str">
+      <c r="D17" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="17" t="str">
         <f>VLOOKUP(D17,Datos!$B$8:$E$22,2,)</f>
         <v>Personal</v>
       </c>
-      <c r="F17" s="18" t="str">
+      <c r="F17" s="17" t="str">
         <f>VLOOKUP(D17,Datos!$B$8:$E$22,3,)</f>
         <v>Horas</v>
       </c>
-      <c r="G17" s="22">
+      <c r="G17" s="21">
         <v>1</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H17" s="17">
         <f>VLOOKUP(D17,Datos!$B$8:$E$22,4,)</f>
         <v>20000</v>
       </c>
-      <c r="I17" s="19">
+      <c r="I17" s="18">
         <f>G17*H17</f>
         <v>20000</v>
       </c>
-      <c r="J17" s="19">
+      <c r="J17" s="18">
         <f>G17*H17</f>
         <v>20000</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C18" s="13"/>
-      <c r="D18" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="18" t="str">
+      <c r="D18" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="17" t="str">
         <f>VLOOKUP(D18,Datos!$B$8:$E$22,2,)</f>
         <v>Personal</v>
       </c>
-      <c r="F18" s="18" t="str">
+      <c r="F18" s="17" t="str">
         <f>VLOOKUP(D18,Datos!$B$8:$E$22,3,)</f>
         <v>Horas</v>
       </c>
-      <c r="G18" s="22">
+      <c r="G18" s="21">
         <v>1</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18" s="17">
         <f>VLOOKUP(D18,Datos!$B$8:$E$22,4,)</f>
         <v>20000</v>
       </c>
-      <c r="I18" s="19">
+      <c r="I18" s="18">
         <f>G18*H18</f>
         <v>20000</v>
       </c>
-      <c r="J18" s="19"/>
+      <c r="J18" s="18"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="13"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="E19" s="18" t="str">
+      <c r="C19" s="15"/>
+      <c r="D19" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="17" t="str">
         <f>VLOOKUP(D19,Datos!$B$8:$E$22,2,)</f>
         <v>Materiales</v>
       </c>
-      <c r="F19" s="18" t="str">
+      <c r="F19" s="17" t="str">
         <f>VLOOKUP(D19,Datos!$B$8:$E$22,3,)</f>
         <v>Kw/h</v>
       </c>
-      <c r="G19" s="22">
+      <c r="G19" s="21">
         <v>1</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H19" s="17">
         <f>VLOOKUP(D19,Datos!$B$8:$E$22,4,)</f>
         <v>250</v>
       </c>
-      <c r="I19" s="19">
+      <c r="I19" s="18">
         <f>G19*H19</f>
         <v>250</v>
       </c>
-      <c r="J19" s="19">
+      <c r="J19" s="18">
         <f>G19*H19</f>
         <v>250</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="41">
+      <c r="B20" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="40">
         <f>SUM(I21:I23)</f>
         <v>50625</v>
       </c>
-      <c r="J20" s="19"/>
+      <c r="J20" s="18"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C21" s="13"/>
-      <c r="D21" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E21" s="18" t="str">
+      <c r="D21" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="17" t="str">
         <f>VLOOKUP(D21,Datos!$B$8:$E$22,2,)</f>
         <v>Personal</v>
       </c>
-      <c r="F21" s="18" t="str">
+      <c r="F21" s="17" t="str">
         <f>VLOOKUP(D21,Datos!$B$8:$E$22,3,)</f>
         <v>Horas</v>
       </c>
-      <c r="G21" s="22">
+      <c r="G21" s="21">
         <v>2.5</v>
       </c>
-      <c r="H21" s="18">
+      <c r="H21" s="17">
         <f>VLOOKUP(D21,Datos!$B$8:$E$22,4,)</f>
         <v>10000</v>
       </c>
-      <c r="I21" s="19">
+      <c r="I21" s="18">
         <f>G21*H21</f>
         <v>25000</v>
       </c>
-      <c r="J21" s="19"/>
+      <c r="J21" s="18"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C22" s="13"/>
-      <c r="D22" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E22" s="18" t="str">
+      <c r="D22" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="17" t="str">
         <f>VLOOKUP(D22,Datos!$B$8:$E$22,2,)</f>
         <v>Personal</v>
       </c>
-      <c r="F22" s="18" t="str">
+      <c r="F22" s="17" t="str">
         <f>VLOOKUP(D22,Datos!$B$8:$E$22,3,)</f>
         <v>Horas</v>
       </c>
-      <c r="G22" s="22">
+      <c r="G22" s="21">
         <v>2.5</v>
       </c>
-      <c r="H22" s="18">
+      <c r="H22" s="17">
         <f>VLOOKUP(D22,Datos!$B$8:$E$22,4,)</f>
         <v>10000</v>
       </c>
-      <c r="I22" s="19">
+      <c r="I22" s="18">
         <f>G22*H22</f>
         <v>25000</v>
       </c>
-      <c r="J22" s="19"/>
+      <c r="J22" s="18"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="13"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="E23" s="18" t="str">
+      <c r="C23" s="15"/>
+      <c r="D23" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="17" t="str">
         <f>VLOOKUP(D23,Datos!$B$8:$E$22,2,)</f>
         <v>Materiales</v>
       </c>
-      <c r="F23" s="18" t="str">
+      <c r="F23" s="17" t="str">
         <f>VLOOKUP(D23,Datos!$B$8:$E$22,3,)</f>
         <v>Kw/h</v>
       </c>
-      <c r="G23" s="22">
+      <c r="G23" s="21">
         <v>2.5</v>
       </c>
-      <c r="H23" s="18">
+      <c r="H23" s="17">
         <f>VLOOKUP(D23,Datos!$B$8:$E$22,4,)</f>
         <v>250</v>
       </c>
-      <c r="I23" s="19">
+      <c r="I23" s="18">
         <f>G23*H23</f>
         <v>625</v>
       </c>
-      <c r="J23" s="19"/>
+      <c r="J23" s="18"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="30">
+      <c r="B24" s="29">
         <v>2</v>
       </c>
-      <c r="C24" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="36">
+      <c r="C24" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="35">
         <f>SUM(I25,I30)</f>
         <v>243200</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="41">
+      <c r="B25" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="40">
         <f>SUM(I26:I29)</f>
         <v>161600</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C26" s="13"/>
-      <c r="D26" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" s="18" t="str">
+      <c r="D26" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="17" t="str">
         <f>VLOOKUP(D26,Datos!$B$8:$E$22,2,)</f>
         <v>Personal</v>
       </c>
-      <c r="F26" s="18" t="str">
+      <c r="F26" s="17" t="str">
         <f>VLOOKUP(D26,Datos!$B$8:$E$22,3,)</f>
         <v>Horas</v>
       </c>
-      <c r="G26" s="22">
+      <c r="G26" s="21">
         <v>4</v>
       </c>
-      <c r="H26" s="18">
+      <c r="H26" s="17">
         <f>VLOOKUP(D26,Datos!$B$8:$E$22,4,)</f>
         <v>20000</v>
       </c>
-      <c r="I26" s="19">
+      <c r="I26" s="18">
         <f>G26*H26</f>
         <v>80000</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C27" s="13"/>
-      <c r="D27" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="E27" s="18" t="str">
+      <c r="D27" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="17" t="str">
         <f>VLOOKUP(D27,Datos!$B$8:$E$22,2,)</f>
         <v>Personal</v>
       </c>
-      <c r="F27" s="18" t="str">
+      <c r="F27" s="17" t="str">
         <f>VLOOKUP(D27,Datos!$B$8:$E$22,3,)</f>
         <v>Horas</v>
       </c>
-      <c r="G27" s="22">
+      <c r="G27" s="21">
         <v>4</v>
       </c>
-      <c r="H27" s="18">
+      <c r="H27" s="17">
         <f>VLOOKUP(D27,Datos!$B$8:$E$22,4,)</f>
         <v>20000</v>
       </c>
-      <c r="I27" s="19">
+      <c r="I27" s="18">
         <f>G27*H27</f>
         <v>80000</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="13"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="E28" s="18" t="str">
+      <c r="C28" s="15"/>
+      <c r="D28" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="17" t="str">
         <f>VLOOKUP(D28,Datos!$B$8:$E$22,2,)</f>
         <v>Materiales</v>
       </c>
-      <c r="F28" s="18" t="str">
+      <c r="F28" s="17" t="str">
         <f>VLOOKUP(D28,Datos!$B$8:$E$22,3,)</f>
         <v>Kw/h</v>
       </c>
-      <c r="G28" s="22">
+      <c r="G28" s="21">
         <v>4</v>
       </c>
-      <c r="H28" s="18">
+      <c r="H28" s="17">
         <f>VLOOKUP(D28,Datos!$B$8:$E$22,4,)</f>
         <v>250</v>
       </c>
-      <c r="I28" s="19">
+      <c r="I28" s="18">
         <f>G28*H28</f>
         <v>1000</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="13"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="E29" s="18" t="str">
+      <c r="C29" s="15"/>
+      <c r="D29" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="17" t="str">
         <f>VLOOKUP(D29,Datos!$B$8:$E$22,2,)</f>
         <v>Materiales</v>
       </c>
-      <c r="F29" s="18" t="str">
+      <c r="F29" s="17" t="str">
         <f>VLOOKUP(D29,Datos!$B$8:$E$22,3,)</f>
         <v>Mb/h</v>
       </c>
-      <c r="G29" s="22">
+      <c r="G29" s="21">
         <v>4</v>
       </c>
-      <c r="H29" s="18">
+      <c r="H29" s="17">
         <f>VLOOKUP(D29,Datos!$B$8:$E$22,4,)</f>
         <v>150</v>
       </c>
-      <c r="I29" s="19">
+      <c r="I29" s="18">
         <f>G29*H29</f>
         <v>600</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="C30" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="41">
+      <c r="B30" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="40">
         <f>SUM(I31:I34)</f>
         <v>81600</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C31" s="13"/>
-      <c r="D31" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="E31" s="18" t="str">
+      <c r="D31" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" s="17" t="str">
         <f>VLOOKUP(D31,Datos!$B$8:$E$22,2,)</f>
         <v>Personal</v>
       </c>
-      <c r="F31" s="18" t="str">
+      <c r="F31" s="17" t="str">
         <f>VLOOKUP(D31,Datos!$B$8:$E$22,3,)</f>
         <v>Horas</v>
       </c>
-      <c r="G31" s="22">
+      <c r="G31" s="21">
         <v>4</v>
       </c>
-      <c r="H31" s="18">
+      <c r="H31" s="17">
         <f>VLOOKUP(D31,Datos!$B$8:$E$22,4,)</f>
         <v>10000</v>
       </c>
-      <c r="I31" s="19">
+      <c r="I31" s="18">
         <f>G31*H31</f>
         <v>40000</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C32" s="13"/>
-      <c r="D32" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="E32" s="18" t="str">
+      <c r="D32" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="17" t="str">
         <f>VLOOKUP(D32,Datos!$B$8:$E$22,2,)</f>
         <v>Personal</v>
       </c>
-      <c r="F32" s="18" t="str">
+      <c r="F32" s="17" t="str">
         <f>VLOOKUP(D32,Datos!$B$8:$E$22,3,)</f>
         <v>Horas</v>
       </c>
-      <c r="G32" s="22">
+      <c r="G32" s="21">
         <v>4</v>
       </c>
-      <c r="H32" s="18">
+      <c r="H32" s="17">
         <f>VLOOKUP(D32,Datos!$B$8:$E$22,4,)</f>
         <v>10000</v>
       </c>
-      <c r="I32" s="19">
+      <c r="I32" s="18">
         <f>G32*H32</f>
         <v>40000</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="13"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="E33" s="18" t="str">
+      <c r="C33" s="15"/>
+      <c r="D33" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" s="17" t="str">
         <f>VLOOKUP(D33,Datos!$B$8:$E$22,2,)</f>
         <v>Materiales</v>
       </c>
-      <c r="F33" s="18" t="str">
+      <c r="F33" s="17" t="str">
         <f>VLOOKUP(D33,Datos!$B$8:$E$22,3,)</f>
         <v>Kw/h</v>
       </c>
-      <c r="G33" s="22">
+      <c r="G33" s="21">
         <v>4</v>
       </c>
-      <c r="H33" s="18">
+      <c r="H33" s="17">
         <f>VLOOKUP(D33,Datos!$B$8:$E$22,4,)</f>
         <v>250</v>
       </c>
-      <c r="I33" s="19">
+      <c r="I33" s="18">
         <f>G33*H33</f>
         <v>1000</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="13"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="E34" s="18" t="str">
+      <c r="C34" s="15"/>
+      <c r="D34" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" s="17" t="str">
         <f>VLOOKUP(D34,Datos!$B$8:$E$22,2,)</f>
         <v>Materiales</v>
       </c>
-      <c r="F34" s="18" t="str">
+      <c r="F34" s="17" t="str">
         <f>VLOOKUP(D34,Datos!$B$8:$E$22,3,)</f>
         <v>Mb/h</v>
       </c>
-      <c r="G34" s="22">
+      <c r="G34" s="21">
         <v>4</v>
       </c>
-      <c r="H34" s="18">
+      <c r="H34" s="17">
         <f>VLOOKUP(D34,Datos!$B$8:$E$22,4,)</f>
         <v>150</v>
       </c>
-      <c r="I34" s="19">
+      <c r="I34" s="18">
         <f>G34*H34</f>
         <v>600</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="J42" s="19">
+      <c r="J42" s="18">
         <f>SUM(J43:J45)</f>
         <v>50625</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="J43" s="19">
+      <c r="J43" s="18">
         <f>G21*H21</f>
         <v>25000</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="J44" s="19">
+      <c r="J44" s="18">
         <f>G22*H22</f>
         <v>25000</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="J45" s="19">
+      <c r="J45" s="18">
         <f>G23*H23</f>
         <v>625</v>
       </c>
@@ -2204,18 +2186,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:G27"/>
+  <dimension ref="B1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="I23" sqref="I22:I23"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="26.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="19" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1" customWidth="1"/>
     <col min="7" max="7" width="21.28515625" style="1" customWidth="1"/>
@@ -2226,436 +2208,266 @@
     <col min="12" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:7" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="E1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="7"/>
       <c r="E2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="20">
+        <v>14</v>
+      </c>
+      <c r="G2" s="19">
         <f>'Presupuesto Detallado'!I2</f>
         <v>0.3</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="21">
-        <f>G7+G24</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="21">
+        <v>12</v>
+      </c>
+      <c r="E4" s="20" t="e">
+        <f>G7+#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F4" s="20" t="e">
         <f>E4*G2</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="21">
+        <v>#REF!</v>
+      </c>
+      <c r="G4" s="20" t="e">
         <f>SUM(E4:F4)</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
-      <c r="G7" s="24">
-        <f>G8+G11+G14+G18+G21</f>
-        <v>0</v>
+      <c r="G7" s="23" t="e">
+        <f>G8+#REF!+G15+#REF!+#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="18">
+      <c r="B8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="17">
         <f>SUM(G9:G10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="17"/>
-      <c r="C9" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16" t="e">
+      <c r="B9" s="16"/>
+      <c r="C9" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15" t="str">
         <f>VLOOKUP(C9,Datos!$B$8:$E$22,3,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F9" s="22" t="e">
+        <v>Horas</v>
+      </c>
+      <c r="F9" s="21">
         <f>VLOOKUP(C9,Datos!$B$8:$E$22,4,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G9" s="23">
+        <v>20000</v>
+      </c>
+      <c r="G9" s="22">
         <f>SUMIFS('Presupuesto Detallado'!I$7:I$28,'Presupuesto Detallado'!F$7:F$28,'Por Recursos'!$C9)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="16"/>
-      <c r="C10" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16" t="e">
-        <f>VLOOKUP(C10,Datos!$B$8:$E$22,3,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F10" s="22" t="e">
+      <c r="B10" s="15"/>
+      <c r="C10" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15" t="str">
+        <f>VLOOKUP(C9,Datos!$B$8:$E$22,3,)</f>
+        <v>Horas</v>
+      </c>
+      <c r="F10" s="21">
         <f>VLOOKUP(C10,Datos!$B$8:$E$22,4,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G10" s="23">
+        <v>20000</v>
+      </c>
+      <c r="G10" s="22">
         <f>SUMIFS('Presupuesto Detallado'!I$7:I$28,'Presupuesto Detallado'!F$7:F$28,'Por Recursos'!$C10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18">
-        <f>SUM(G12:G13)</f>
-        <v>0</v>
-      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15" t="str">
+        <f>VLOOKUP(C11,Datos!$B$8:$E$22,3,)</f>
+        <v>Horas</v>
+      </c>
+      <c r="F11" s="21">
+        <f>VLOOKUP(C11,Datos!$B$8:$E$22,4,)</f>
+        <v>10000</v>
+      </c>
+      <c r="G11" s="22"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="16"/>
-      <c r="C12" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16" t="e">
-        <f>VLOOKUP(C12,Datos!$B$8:$E$22,3,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F12" s="22" t="e">
+      <c r="B12" s="15"/>
+      <c r="C12" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15" t="str">
+        <f>VLOOKUP(C11,Datos!$B$8:$E$22,3,)</f>
+        <v>Horas</v>
+      </c>
+      <c r="F12" s="21">
         <f>VLOOKUP(C12,Datos!$B$8:$E$22,4,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G12" s="23">
-        <f>SUMIFS('Presupuesto Detallado'!I$7:I$28,'Presupuesto Detallado'!F$7:F$28,'Por Recursos'!$C12)</f>
-        <v>0</v>
-      </c>
+        <v>10000</v>
+      </c>
+      <c r="G12" s="22"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="16"/>
-      <c r="C13" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16" t="e">
+      <c r="B13" s="15"/>
+      <c r="C13" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15" t="str">
         <f>VLOOKUP(C13,Datos!$B$8:$E$22,3,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F13" s="22" t="e">
+        <v>Horas</v>
+      </c>
+      <c r="F13" s="21">
         <f>VLOOKUP(C13,Datos!$B$8:$E$22,4,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G13" s="23">
+        <v>10000</v>
+      </c>
+      <c r="G13" s="22">
         <f>SUMIFS('Presupuesto Detallado'!I$7:I$28,'Presupuesto Detallado'!F$7:F$28,'Por Recursos'!$C13)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18">
-        <f>SUM(G15:G17)</f>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15" t="str">
+        <f>VLOOKUP(C13,Datos!$B$8:$E$22,3,)</f>
+        <v>Horas</v>
+      </c>
+      <c r="F14" s="21">
+        <f>VLOOKUP(C14,Datos!$B$8:$E$22,4,)</f>
+        <v>10000</v>
+      </c>
+      <c r="G14" s="22">
+        <f>SUMIFS('Presupuesto Detallado'!I$7:I$28,'Presupuesto Detallado'!F$7:F$28,'Por Recursos'!$C14)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="16"/>
-      <c r="C15" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16" t="e">
-        <f>VLOOKUP(C15,Datos!$B$8:$E$22,3,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F15" s="22" t="e">
-        <f>VLOOKUP(C15,Datos!$B$8:$E$22,4,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G15" s="23">
-        <f>SUMIFS('Presupuesto Detallado'!I$7:I$28,'Presupuesto Detallado'!F$7:F$28,'Por Recursos'!$C15)</f>
+      <c r="B15" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17">
+        <f>SUM(G16:G17)</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="16"/>
-      <c r="C16" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16" t="e">
+      <c r="B16" s="15"/>
+      <c r="C16" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15" t="str">
         <f>VLOOKUP(C16,Datos!$B$8:$E$22,3,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F16" s="22" t="e">
+        <v>Mb/h</v>
+      </c>
+      <c r="F16" s="21">
         <f>VLOOKUP(C16,Datos!$B$8:$E$22,4,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G16" s="23">
+        <v>150</v>
+      </c>
+      <c r="G16" s="22">
         <f>SUMIFS('Presupuesto Detallado'!I$7:I$28,'Presupuesto Detallado'!F$7:F$28,'Por Recursos'!$C16)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="16"/>
-      <c r="C17" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16" t="e">
+      <c r="B17" s="15"/>
+      <c r="C17" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15" t="str">
         <f>VLOOKUP(C17,Datos!$B$8:$E$22,3,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F17" s="22" t="e">
+        <v>Kw/h</v>
+      </c>
+      <c r="F17" s="21">
         <f>VLOOKUP(C17,Datos!$B$8:$E$22,4,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G17" s="23">
+        <v>250</v>
+      </c>
+      <c r="G17" s="22">
         <f>SUMIFS('Presupuesto Detallado'!I$7:I$28,'Presupuesto Detallado'!F$7:F$28,'Por Recursos'!$C17)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18">
-        <f>SUM(G19:G20)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="16"/>
-      <c r="C19" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16" t="e">
-        <f>VLOOKUP(C19,Datos!$B$8:$E$22,3,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F19" s="22" t="e">
-        <f>VLOOKUP(C19,Datos!$B$8:$E$22,4,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G19" s="23">
-        <f>SUMIFS('Presupuesto Detallado'!I$7:I$28,'Presupuesto Detallado'!F$7:F$28,'Por Recursos'!$C19)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="16"/>
-      <c r="C20" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16" t="e">
-        <f>VLOOKUP(C20,Datos!$B$8:$E$22,3,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F20" s="22" t="e">
-        <f>VLOOKUP(C20,Datos!$B$8:$E$22,4,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G20" s="23">
-        <f>SUMIFS('Presupuesto Detallado'!I$7:I$28,'Presupuesto Detallado'!F$7:F$28,'Por Recursos'!$C20)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18">
-        <f>SUM(G22:G23)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="14"/>
-      <c r="C22" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16" t="e">
-        <f>VLOOKUP(C22,Datos!$B$8:$E$22,3,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F22" s="22" t="e">
-        <f>VLOOKUP(C22,Datos!$B$8:$E$22,4,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G22" s="23">
-        <f>SUMIFS('Presupuesto Detallado'!I$7:I$28,'Presupuesto Detallado'!F$7:F$28,'Por Recursos'!$C22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="17"/>
-      <c r="C23" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16" t="e">
-        <f>VLOOKUP(C23,Datos!$B$8:$E$22,3,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F23" s="22" t="e">
-        <f>VLOOKUP(C23,Datos!$B$8:$E$22,4,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G23" s="23">
-        <f>SUMIFS('Presupuesto Detallado'!I$7:I$28,'Presupuesto Detallado'!F$7:F$28,'Por Recursos'!$C23)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="24">
-        <f>SUM(G25:G27)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="16"/>
-      <c r="C25" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="16" t="e">
-        <f>VLOOKUP(C25,Datos!$B$8:$E$22,3,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F25" s="22" t="e">
-        <f>VLOOKUP(C25,Datos!$B$8:$E$22,4,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G25" s="23">
-        <f>SUMIFS('Presupuesto Detallado'!I$7:I$28,'Presupuesto Detallado'!F$7:F$28,'Por Recursos'!$C25)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="16"/>
-      <c r="C26" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="16" t="e">
-        <f>VLOOKUP(C26,Datos!$B$8:$E$22,3,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F26" s="22" t="e">
-        <f>VLOOKUP(C26,Datos!$B$8:$E$22,4,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G26" s="23">
-        <f>SUMIFS('Presupuesto Detallado'!I$7:I$28,'Presupuesto Detallado'!F$7:F$28,'Por Recursos'!$C26)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="16"/>
-      <c r="C27" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="16" t="e">
-        <f>VLOOKUP(C27,Datos!$B$8:$E$22,3,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F27" s="22" t="e">
-        <f>VLOOKUP(C27,Datos!$B$8:$E$22,4,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G27" s="23">
-        <f>SUMIFS('Presupuesto Detallado'!I$7:I$28,'Presupuesto Detallado'!F$7:F$28,'Por Recursos'!$C27)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="92" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Hugo Hernan Henao/Trimestre IV/Evidencias/QuickSort/Documentos/Presupuesto.xlsx
+++ b/Hugo Hernan Henao/Trimestre IV/Evidencias/QuickSort/Documentos/Presupuesto.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructivo" sheetId="2" r:id="rId1"/>
     <sheet name="Datos" sheetId="6" r:id="rId2"/>
     <sheet name="Presupuesto Detallado" sheetId="1" r:id="rId3"/>
-    <sheet name="Por Recursos" sheetId="5" r:id="rId4"/>
+    <sheet name="Por Recursos" sheetId="5" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Instructivo!$A$1:$D$34</definedName>
@@ -1388,8 +1388,8 @@
   </sheetPr>
   <dimension ref="B1:J45"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2188,7 +2188,7 @@
   </sheetPr>
   <dimension ref="B1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" zoomScaleSheetLayoutView="130" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
